--- a/participants/participant_14/participant_14_task_orders.xlsx
+++ b/participants/participant_14/participant_14_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730451369061" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730472579112" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730472599118" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1649873047306915" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1649873047369947" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650291156809723" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911604610233" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911604630256" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911605100253" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502911606030235" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730450968714.csv</t>
+          <t>go_stims-16502911567645452.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730451198707.csv</t>
+          <t>GNG_stims-16502911567797503.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730451208763.csv</t>
+          <t>go_stims-16502911567817419.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730451359065.csv</t>
+          <t>GNG_stims-16502911568077176.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1649873047238947.csv</t>
+          <t>ZB-match_5-16502911579900258.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16498730463249466.csv</t>
+          <t>ZB-match_6-16502911568129282.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16498730468329494.csv</t>
+          <t>TB-16502911599551232.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1649873046294944.csv</t>
+          <t>ZB-match_7-16502911578560324.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_7-16498730455859118.csv</t>
+          <t>OB-16502911587200234.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1649873046982912.csv</t>
+          <t>TB-16502911604410257.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1649873045933912.csv</t>
+          <t>OB-16502911588310587.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_7-16498730456239145.csv</t>
+          <t>OB-16502911585320244.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_7-16498730453339121.csv</t>
+          <t>TB-16502911590260613.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1649873047273911.csv</t>
+          <t>MM_stims-16502911604770555.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873047261912.csv</t>
+          <t>ZM_stims-16502911604650264.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730472899132.csv</t>
+          <t>MM_stims-165029116049303.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730472749102.csv</t>
+          <t>ZM_stims-16502911604770555.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1649873047305941.csv</t>
+          <t>MM_stims-16502911605090258.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730472909148.csv</t>
+          <t>ZM_stims-1650291160494027.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873047309912.csv</t>
+          <t>SAT_stims-16502911605150259.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730473379464.csv</t>
+          <t>SAT_stims-16502911605410266.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730473539467.csv</t>
+          <t>vSAT_stims-1650291160589081.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730473219428.csv</t>
+          <t>vSAT_stims-16502911605570295.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_14/participant_14_task_orders.xlsx
+++ b/participants/participant_14/participant_14_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650291156809723" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911604610233" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911604630256" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911605100253" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502911606030235" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650477806120553" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650477807999646" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778080005555" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778080615535" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778081245556" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911567645452.csv</t>
+          <t>go_stims-16504778060845585.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911567797503.csv</t>
+          <t>GNG_stims-16504778061035886.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502911567817419.csv</t>
+          <t>go_stims-1650477806105554.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911568077176.csv</t>
+          <t>GNG_stims-16504778061195526.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_5-16502911579900258.csv</t>
+          <t>ZB-match_2-16504778064565892.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502911568129282.csv</t>
+          <t>OB-1650477807284552.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16502911599551232.csv</t>
+          <t>TB-16504778079855871.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_7-16502911578560324.csv</t>
+          <t>TB-16504778073605888.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502911587200234.csv</t>
+          <t>ZB-match_0-16504778064275532.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16502911604410257.csv</t>
+          <t>OB-16504778070745873.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502911588310587.csv</t>
+          <t>OB-16504778071745527.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16502911585320244.csv</t>
+          <t>ZB-match_1-16504778063115876.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16502911590260613.csv</t>
+          <t>TB-16504778075065882.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502911604770555.csv</t>
+          <t>MM_stims-16504778080145555.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911604650264.csv</t>
+          <t>ZM_stims-16504778080025582.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-165029116049303.csv</t>
+          <t>MM_stims-1650477808045555.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911604770555.csv</t>
+          <t>ZM_stims-16504778080155568.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911605090258.csv</t>
+          <t>MM_stims-16504778080605888.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291160494027.csv</t>
+          <t>ZM_stims-16504778080465546.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911605150259.csv</t>
+          <t>vSAT_stims-16504778080935547.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911605410266.csv</t>
+          <t>SAT_stims-16504778080645587.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291160589081.csv</t>
+          <t>vSAT_stims-16504778081085887.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911605570295.csv</t>
+          <t>SAT_stims-16504778080775588.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_14/participant_14_task_orders.xlsx
+++ b/participants/participant_14/participant_14_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650477806120553" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650477807999646" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778080005555" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778080615535" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778081245556" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509960951654131" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509960986466053" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509960986466053" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509960986945407" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509960987585418" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778060845585.csv</t>
+          <t>go_stims-1650996095133378.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778061035886.csv</t>
+          <t>GNG_stims-16509960951493788.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650477806105554.csv</t>
+          <t>go_stims-16509960951493788.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778061195526.csv</t>
+          <t>GNG_stims-16509960951654131.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_2-16504778064565892.csv</t>
+          <t>ZB-match_0-16509960958133812.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1650477807284552.csv</t>
+          <t>ZB-match_2-1650996095637415.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16504778079855871.csv</t>
+          <t>OB-1650996097206381.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16504778073605888.csv</t>
+          <t>OB-16509960966694198.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_0-16504778064275532.csv</t>
+          <t>TB-16509960986225467.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16504778070745873.csv</t>
+          <t>OB-16509960974703472.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16504778071745527.csv</t>
+          <t>ZB-match_6-16509960952454154.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504778063115876.csv</t>
+          <t>TB-16509960981183443.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16504778075065882.csv</t>
+          <t>TB-16509960984225395.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778080145555.csv</t>
+          <t>MM_stims-1650996098662542.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778080025582.csv</t>
+          <t>ZM_stims-16509960986466053.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650477808045555.csv</t>
+          <t>MM_stims-16509960986785762.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778080155568.csv</t>
+          <t>ZM_stims-1650996098662542.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778080605888.csv</t>
+          <t>MM_stims-16509960986945407.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778080465546.csv</t>
+          <t>ZM_stims-16509960986785762.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778080935547.csv</t>
+          <t>vSAT_stims-16509960987425494.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778080645587.csv</t>
+          <t>SAT_stims-16509960986945407.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778081085887.csv</t>
+          <t>SAT_stims-16509960987105417.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778080775588.csv</t>
+          <t>vSAT_stims-16509960987265406.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_14/participant_14_task_orders.xlsx
+++ b/participants/participant_14/participant_14_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509960951654131" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509960986466053" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509960986466053" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509960986945407" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509960987585418" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511686885946965" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511686913865025" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651168691387472" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511686914334712" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651168691511471" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650996095133378.csv</t>
+          <t>go_stims-1651168688562694.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960951493788.csv</t>
+          <t>GNG_stims-16511686885766938.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509960951493788.csv</t>
+          <t>go_stims-16511686885776973.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960951654131.csv</t>
+          <t>GNG_stims-16511686885937119.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509960958133812.csv</t>
+          <t>TB-16511686913704693.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_2-1650996095637415.csv</t>
+          <t>ZB-match_7-16511686886627052.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1650996097206381.csv</t>
+          <t>OB-16511686899744716.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16509960966694198.csv</t>
+          <t>OB-16511686898584852.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16509960986225467.csv</t>
+          <t>TB-16511686912255077.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16509960974703472.csv</t>
+          <t>OB-1651168689409471.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_6-16509960952454154.csv</t>
+          <t>ZB-match_9-16511686886246958.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16509960981183443.csv</t>
+          <t>TB-16511686900805037.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16509960984225395.csv</t>
+          <t>ZB-match_6-1651168688777696.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650996098662542.csv</t>
+          <t>MM_stims-16511686914014692.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960986466053.csv</t>
+          <t>ZM_stims-16511686913894727.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509960986785762.csv</t>
+          <t>MM_stims-16511686914164698.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996098662542.csv</t>
+          <t>ZM_stims-16511686914014692.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509960986945407.csv</t>
+          <t>MM_stims-16511686914324746.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960986785762.csv</t>
+          <t>ZM_stims-1651168691417471.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960987425494.csv</t>
+          <t>vSAT_stims-16511686914954693.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960986945407.csv</t>
+          <t>SAT_stims-16511686914634798.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960987105417.csv</t>
+          <t>SAT_stims-1651168691437472.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960987265406.csv</t>
+          <t>vSAT_stims-1651168691479473.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_14/participant_14_task_orders.xlsx
+++ b/participants/participant_14/participant_14_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511686885946965" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511686913865025" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651168691387472" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511686914334712" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651168691511471" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555197434459" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651255520556097" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555205620975" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555206200964" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555206970956" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651168688562694.csv</t>
+          <t>go_stims-16512555197144458.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686885766938.csv</t>
+          <t>GNG_stims-16512555197274494.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511686885776973.csv</t>
+          <t>go_stims-16512555197294445.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686885937119.csv</t>
+          <t>GNG_stims-1651255519742461.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16511686913704693.csv</t>
+          <t>OB-16512555201720972.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_7-16511686886627052.csv</t>
+          <t>OB-1651255520074097.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16511686899744716.csv</t>
+          <t>TB-16512555205300965.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16511686898584852.csv</t>
+          <t>ZB-match_7-16512555200200982.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16511686912255077.csv</t>
+          <t>TB-1651255520231097.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1651168689409471.csv</t>
+          <t>TB-16512555204320958.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_9-16511686886246958.csv</t>
+          <t>ZB-match_5-16512555197684462.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16511686900805037.csv</t>
+          <t>OB-16512555201520972.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_6-1651168688777696.csv</t>
+          <t>ZB-match_6-16512555198464441.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511686914014692.csv</t>
+          <t>MM_stims-16512555205871003.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686913894727.csv</t>
+          <t>ZM_stims-1651255520564098.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511686914164698.csv</t>
+          <t>MM_stims-16512555206030986.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686914014692.csv</t>
+          <t>ZM_stims-16512555205880995.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511686914324746.csv</t>
+          <t>MM_stims-16512555206190972.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168691417471.csv</t>
+          <t>ZM_stims-16512555206041017.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686914954693.csv</t>
+          <t>SAT_stims-16512555206250978.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686914634798.csv</t>
+          <t>SAT_stims-16512555206501012.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168691437472.csv</t>
+          <t>vSAT_stims-1651255520682099.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168691479473.csv</t>
+          <t>vSAT_stims-16512555206660984.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_14/participant_14_task_orders.xlsx
+++ b/participants/participant_14/participant_14_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555197434459" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651255520556097" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555205620975" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555206200964" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555206970956" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TOL_TO-16515889474425979" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16515889496411035" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651588949648028" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_TO-16515889496897817" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16515889497662058" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555197144458.csv</t>
+          <t>MM_stims-1651588947409778.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555197274494.csv</t>
+          <t>ZM_stims-16515889473885555.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555197294445.csv</t>
+          <t>MM_stims-16515889474255733.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255519742461.csv</t>
+          <t>ZM_stims-16515889474107912.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889474406004.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889474275646.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +536,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16512555201720972.csv</t>
+          <t>TB-1651588949006439.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +546,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1651255520074097.csv</t>
+          <t>ZB-match_2-16515889478013241.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16512555205300965.csv</t>
+          <t>OB-16515889485108843.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_7-16512555200200982.csv</t>
+          <t>TB-16515889492961125.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1651255520231097.csv</t>
+          <t>OB-16515889486048956.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16512555204320958.csv</t>
+          <t>ZB-match_2-1651588948323798.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +596,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_5-16512555197684462.csv</t>
+          <t>OB-16515889488953.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +606,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16512555201520972.csv</t>
+          <t>ZB-match_4-1651588947709326.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +616,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_6-16512555198464441.csv</t>
+          <t>TB-1651588949620282.csv</t>
         </is>
       </c>
     </row>
@@ -657,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +698,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512555205871003.csv</t>
+          <t>go_stims-16515889496501188.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +708,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651255520564098.csv</t>
+          <t>GNG_stims-16515889496733155.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +718,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512555206030986.csv</t>
+          <t>go_stims-16515889496753514.csv</t>
         </is>
       </c>
     </row>
@@ -708,27 +728,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555205880995.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555206190972.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555206041017.csv</t>
+          <t>GNG_stims-16515889496878226.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555206250978.csv</t>
+          <t>SAT_stims-16515889496946719.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555206501012.csv</t>
+          <t>vSAT_stims-16515889497345905.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255520682099.csv</t>
+          <t>vSAT_stims-16515889497506745.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555206660984.csv</t>
+          <t>SAT_stims-16515889497186453.csv</t>
         </is>
       </c>
     </row>
